--- a/v3dot0/Primer/data/BQ1989_Data.xlsx
+++ b/v3dot0/Primer/data/BQ1989_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\321471\Desktop\VAR-Toolbox\Manual\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jambro/Google Drive/VAR-Toolbox/v3dot0/Primer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F5A0F2-C6E6-664C-96FE-B6723085455E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -644,6 +645,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -679,6 +697,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -854,22 +889,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>161</v>
       </c>
@@ -877,7 +912,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>159</v>
       </c>
@@ -885,7 +920,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -896,7 +931,7 @@
         <v>-0.14244057384710601</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -907,7 +942,7 @@
         <v>-6.6164791589988697E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -918,7 +953,7 @@
         <v>-2.3222342672871699E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -929,7 +964,7 @@
         <v>0.78638677292424497</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -940,7 +975,7 @@
         <v>1.9626625551813599</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -951,7 +986,7 @@
         <v>2.7722716707684798</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -962,7 +997,7 @@
         <v>3.0152141196955999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -973,7 +1008,7 @@
         <v>2.4248232352827102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -984,7 +1019,7 @@
         <v>1.56776568420983</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -995,7 +1030,7 @@
         <v>0.61070813312694605</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1006,7 +1041,7 @@
         <v>0.186983915384063</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1052,7 @@
         <v>-0.57007363568881997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1063,7 @@
         <v>-0.99379785343170302</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1039,7 +1074,7 @@
         <v>-0.95085540450458705</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1085,7 @@
         <v>-0.77457962224747001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1061,7 +1096,7 @@
         <v>-1.09830383999035</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +1107,7 @@
         <v>-1.2220280577332401</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1118,7 @@
         <v>-0.97908560881611895</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1094,7 +1129,7 @@
         <v>-1.4028098265590001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1140,7 @@
         <v>-1.5598673776318901</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1151,7 @@
         <v>-1.7169249287047701</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1127,7 +1162,7 @@
         <v>-1.57398247978765</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1138,7 +1173,7 @@
         <v>-0.63104003086053495</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1184,7 @@
         <v>0.91190241806658101</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1195,7 @@
         <v>1.4215115336537001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1171,7 +1206,7 @@
         <v>1.5644539825808199</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1217,7 @@
         <v>0.90739643149793203</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1228,7 @@
         <v>0.28367221375504897</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1239,7 @@
         <v>-7.3385337317834101E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>-0.39710955506071799</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1261,7 @@
         <v>-0.28750043947360099</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1237,7 +1272,7 @@
         <v>-0.51122465721648402</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1248,7 +1283,7 @@
         <v>-0.36828220828936697</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1294,7 @@
         <v>-0.45867309270224998</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1270,7 +1305,7 @@
         <v>-0.48239731044513301</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1281,7 +1316,7 @@
         <v>-0.70612152818801699</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1292,7 +1327,7 @@
         <v>-0.56317907926090005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1303,7 +1338,7 @@
         <v>-0.45356996367378299</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1314,7 +1349,7 @@
         <v>0.22270581858333399</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1360,7 @@
         <v>1.5656482675104499</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1371,7 @@
         <v>2.6085907164375701</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1347,7 +1382,7 @@
         <v>2.5515331653546802</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1393,7 @@
         <v>1.5611422809518001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1369,7 +1404,7 @@
         <v>1.0040847298689199</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1380,7 +1415,7 @@
         <v>0.247027178796034</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1426,7 @@
         <v>0.38996962772315202</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>0.69957874331026804</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1448,7 @@
         <v>0.209187858897386</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>0.28546364115450201</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1435,7 +1470,7 @@
         <v>0.56173942341161898</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>1.27134853900874</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1457,7 +1492,7 @@
         <v>1.7809576545958501</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1468,7 +1503,7 @@
         <v>1.95723343685297</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1479,7 +1514,7 @@
         <v>1.7001758857800899</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>1.1097850013671999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1501,7 +1536,7 @@
         <v>0.51939411695432003</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1512,7 +1547,7 @@
         <v>0.39566989921143603</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1523,7 +1558,7 @@
         <v>0.405279014808553</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -1534,7 +1569,7 @@
         <v>0.34822146372566998</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>0.55783057932278701</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -1556,7 +1591,7 @@
         <v>0.50077302823990399</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>0.24371547716702099</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -1578,7 +1613,7 @@
         <v>0.28665792609413698</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1589,7 +1624,7 @@
         <v>0.16293370835125401</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1600,7 +1635,7 @@
         <v>-0.12745717606162901</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1611,7 +1646,7 @@
         <v>-0.35118139380451202</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -1622,7 +1657,7 @@
         <v>-0.40823894487739498</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1633,7 +1668,7 @@
         <v>-0.49862982929027799</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1644,7 +1679,7 @@
         <v>-0.75568738036316097</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1655,7 +1690,7 @@
         <v>-1.0794115981060499</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1666,7 +1701,7 @@
         <v>-1.3698024825189301</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1677,7 +1712,7 @@
         <v>-1.62686003359181</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1688,7 +1723,7 @@
         <v>-1.6839175846746901</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1699,7 +1734,7 @@
         <v>-1.7743084690775801</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -1710,7 +1745,7 @@
         <v>-1.8646993534904599</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -1721,7 +1756,7 @@
         <v>-1.75509023790334</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -1732,7 +1767,7 @@
         <v>-1.77881445564623</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -1743,7 +1778,7 @@
         <v>-1.8358720067191101</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>-1.75959622446199</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1765,7 +1800,7 @@
         <v>-1.9499871088748799</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1776,7 +1811,7 @@
         <v>-2.14037799327776</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -1787,7 +1822,7 @@
         <v>-2.1974355443606401</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>-2.3544930954335301</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -1809,7 +1844,7 @@
         <v>-2.3782173131764099</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -1820,7 +1855,7 @@
         <v>-2.3686081975892899</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -1831,7 +1866,7 @@
         <v>-2.2589990819921799</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>-2.2827232997350602</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -1853,7 +1888,7 @@
         <v>-1.7064475174779401</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -1864,7 +1899,7 @@
         <v>-1.13017173522083</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -1875,7 +1910,7 @@
         <v>-0.75389595296370804</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -1886,7 +1921,7 @@
         <v>-0.110953504046592</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -1897,7 +1932,7 @@
         <v>-3.4677721789474397E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -1908,7 +1943,7 @@
         <v>-9.17352728623574E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -1919,7 +1954,7 @@
         <v>1.78738427247589E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -1930,7 +1965,7 @@
         <v>-0.105850375018124</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -1941,7 +1976,7 @@
         <v>-0.29624125942100699</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -1952,7 +1987,7 @@
         <v>-0.38663214383389</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -1963,7 +1998,7 @@
         <v>-0.54368969490677399</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -1974,7 +2009,7 @@
         <v>-0.76741391264965697</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -1985,7 +2020,7 @@
         <v>-1.22447146373254</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -1996,7 +2031,7 @@
         <v>-1.24819568147542</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -2007,7 +2042,7 @@
         <v>-1.40525323254831</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -2018,7 +2053,7 @@
         <v>-1.4623107836211899</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -2029,7 +2064,7 @@
         <v>-1.1193683347040699</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -2040,7 +2075,7 @@
         <v>-1.07642588577696</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -2051,7 +2086,7 @@
         <v>-0.66681677018983898</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -2062,7 +2097,7 @@
         <v>0.276125678737277</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -2073,7 +2108,7 @@
         <v>1.9190681276643899</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>2.4953439099215098</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -2095,7 +2130,7 @@
         <v>2.0716196921786301</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2106,7 +2141,7 @@
         <v>1.88122880776575</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -2117,7 +2152,7 @@
         <v>1.29083792335286</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -2128,7 +2163,7 @@
         <v>1.1004470389499801</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -2139,7 +2174,7 @@
         <v>1.2433894878670999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -2150,7 +2185,7 @@
         <v>1.25299860346421</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -2161,7 +2196,7 @@
         <v>0.96260771905132902</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -2172,7 +2207,7 @@
         <v>0.57221683463844597</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -2183,7 +2218,7 @@
         <v>0.315159283565563</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -2194,7 +2229,7 @@
         <v>5.81017324926799E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -2205,7 +2240,7 @@
         <v>-0.29895581859020398</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -2216,7 +2251,7 @@
         <v>-0.65601336966308699</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -2227,7 +2262,7 @@
         <v>-0.64640425407597002</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -2238,7 +2273,7 @@
         <v>-0.80346180514885301</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -2249,7 +2284,7 @@
         <v>-0.86051935622173703</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>-1.05091024063462</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>-0.90796779170750297</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -2282,7 +2317,7 @@
         <v>-0.83169200945038602</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -2293,7 +2328,7 @@
         <v>-0.522082893863269</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -2304,7 +2339,7 @@
         <v>0.48752622172384802</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -2315,7 +2350,7 @@
         <v>0.79713533732096498</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -2326,7 +2361,7 @@
         <v>0.50674445290808201</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -2337,7 +2372,7 @@
         <v>0.51635356849519898</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -2348,7 +2383,7 @@
         <v>0.45929601742231602</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -2359,7 +2394,7 @@
         <v>0.43557179967943199</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -2370,7 +2405,7 @@
         <v>1.2451809152665501</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -2381,7 +2416,7 @@
         <v>1.8214566975236699</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -2392,7 +2427,7 @@
         <v>2.39773247978078</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -2403,7 +2438,7 @@
         <v>2.8406749287078998</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -2414,7 +2449,7 @@
         <v>3.58361737766502</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -2425,7 +2460,7 @@
         <v>3.2598931599221301</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -2436,7 +2471,7 @@
         <v>3.0028356087792498</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -2447,7 +2482,7 @@
         <v>2.2124447244063701</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -2458,7 +2493,7 @@
         <v>1.3553871733234799</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -2469,7 +2504,7 @@
         <v>0.66499628892060003</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -2480,7 +2515,7 @@
         <v>0.20793873783771699</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -2491,7 +2526,7 @@
         <v>0.18421452009483399</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>2.71569690219505E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -2513,7 +2548,7 @@
         <v>-6.3233915390932496E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -2524,7 +2559,7 @@
         <v>-2.02914664638159E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>-0.144015684206699</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -2546,7 +2581,7 @@
         <v>-0.33440656861958201</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -2557,7 +2592,7 @@
         <v>-0.35813078636246498</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -2568,7 +2603,7 @@
         <v>-0.24852167076534801</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -2579,7 +2614,7 @@
         <v>-0.47224588850823102</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -2590,7 +2625,7 @@
         <v>-0.62930343959111501</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -2601,7 +2636,7 @@
         <v>-0.88636099066399798</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -2612,7 +2647,7 @@
         <v>-1.2434185417368799</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -2623,7 +2658,7 @@
         <v>-1.5338094261497599</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -2640,24 +2675,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
